--- a/src/main/webapp/assets/exceltpl/qcitem.xlsx
+++ b/src/main/webapp/assets/exceltpl/qcitem.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26704" windowHeight="11748"/>
+    <workbookView windowWidth="21576" windowHeight="9684"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>检验项目导入</t>
+    <t>检验项目</t>
   </si>
   <si>
     <t>*检验项目编码</t>
@@ -35,35 +35,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -219,7 +203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,15 +404,17 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,148 +520,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -683,14 +669,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -754,7 +740,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -764,39 +750,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,160 +861,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1043,22 +1000,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.3771929824561" customWidth="1"/>
-    <col min="2" max="2" width="18.7543859649123" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.95" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="24.95" customHeight="1" spans="1:2">
+    <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1070,8 +1027,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>